--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_25.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_25.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_8</t>
+          <t>model_1_25_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9982369222233062</v>
+        <v>0.946326744896814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8236153089555394</v>
+        <v>0.7165755312026307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8101157982181533</v>
+        <v>0.7689325452430572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956263839868289</v>
+        <v>0.973367695436142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007338858314080674</v>
+        <v>0.172306563275558</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17948524119113</v>
+        <v>1.895260727897687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6792047796550447</v>
+        <v>0.826514887604753</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02429117435412339</v>
+        <v>0.09276337981668871</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1879139224773288</v>
+        <v>0.8078440226141375</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08566713672161964</v>
+        <v>0.4150982573747546</v>
       </c>
       <c r="L2" t="n">
-        <v>1.112836977708405</v>
+        <v>0.9269130143275766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08701630848926602</v>
+        <v>0.4216356399823828</v>
       </c>
       <c r="N2" t="n">
-        <v>139.8291439829891</v>
+        <v>37.51696008806938</v>
       </c>
       <c r="O2" t="n">
-        <v>281.1643165262055</v>
+        <v>74.4815436762952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_9</t>
+          <t>model_1_25_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9982091048982396</v>
+        <v>0.9462516128493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8235099302345609</v>
+        <v>0.716350289776517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8098166249723134</v>
+        <v>0.7689040211584371</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9955170594126787</v>
+        <v>0.9735891539598545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007454648672304902</v>
+        <v>0.1725477587252117</v>
       </c>
       <c r="G3" t="n">
-        <v>1.180189909183538</v>
+        <v>1.896766918351251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6802749050083521</v>
+        <v>0.8266169166015176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02489836581397631</v>
+        <v>0.09199201430832578</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1851277829986328</v>
+        <v>0.8073656011860688</v>
       </c>
       <c r="K3" t="n">
-        <v>0.086340307344281</v>
+        <v>0.4153886839156932</v>
       </c>
       <c r="L3" t="n">
-        <v>1.114617286512669</v>
+        <v>0.9268107068586213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08770008087631052</v>
+        <v>0.4219306404510211</v>
       </c>
       <c r="N3" t="n">
-        <v>139.7978349166546</v>
+        <v>37.51416243730969</v>
       </c>
       <c r="O3" t="n">
-        <v>281.133007459871</v>
+        <v>74.4787460255355</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983023316351207</v>
+        <v>0.9461732784314483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8232931635132897</v>
+        <v>0.7161214107112304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8101589269619311</v>
+        <v>0.7688747715983447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9959970840984304</v>
+        <v>0.973809884006009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007066589891178456</v>
+        <v>0.1727992347033369</v>
       </c>
       <c r="G4" t="n">
-        <v>1.181639429246797</v>
+        <v>1.898297433714714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6790505106392991</v>
+        <v>0.8267215405819812</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02223229652468269</v>
+        <v>0.09122318617108006</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1907061402687862</v>
+        <v>0.8069222864455465</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08406301143296292</v>
+        <v>0.4156912733066896</v>
       </c>
       <c r="L4" t="n">
-        <v>1.108650775352274</v>
+        <v>0.9267040387151636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08538691983084994</v>
+        <v>0.4222379953224474</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9047545009743</v>
+        <v>37.51124970284425</v>
       </c>
       <c r="O4" t="n">
-        <v>281.2399270441908</v>
+        <v>74.47583329107006</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9982970758853461</v>
+        <v>0.9460916547500359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227373101104087</v>
+        <v>0.7158888419026577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8102383178757526</v>
+        <v>0.7688445428336902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9962696550931257</v>
+        <v>0.9740296740417795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007088467089927034</v>
+        <v>0.1730612701621334</v>
       </c>
       <c r="G5" t="n">
-        <v>1.185356423511332</v>
+        <v>1.89985262240852</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6787665339439097</v>
+        <v>0.826829667120386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02071843030138364</v>
+        <v>0.0904576321981139</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1992286762018263</v>
+        <v>0.8064944789445644</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08419303468771649</v>
+        <v>0.4160063342812623</v>
       </c>
       <c r="L5" t="n">
-        <v>1.108987143337849</v>
+        <v>0.926592891574517</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08551899082189031</v>
+        <v>0.4225580181924241</v>
       </c>
       <c r="N5" t="n">
-        <v>139.8985723383177</v>
+        <v>37.50821916879659</v>
       </c>
       <c r="O5" t="n">
-        <v>281.2337448815341</v>
+        <v>74.47280275702241</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.998249500136954</v>
+        <v>0.9460064807730058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8227113972208896</v>
+        <v>0.7156524655293979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8093568267528376</v>
+        <v>0.7688136375486577</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9963186051796828</v>
+        <v>0.9742483651062688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007286502412730694</v>
+        <v>0.1733347030894703</v>
       </c>
       <c r="G6" t="n">
-        <v>1.185529703122864</v>
+        <v>1.901433272304922</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6819195765787847</v>
+        <v>0.8269402135329557</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02044656027812845</v>
+        <v>0.08969590606851494</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2036841363552615</v>
+        <v>0.8060850625611483</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08536101225226124</v>
+        <v>0.4163348449138869</v>
       </c>
       <c r="L6" t="n">
-        <v>1.112031991234943</v>
+        <v>0.9264769099887737</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08670536286552741</v>
+        <v>0.4228917025391224</v>
       </c>
       <c r="N6" t="n">
-        <v>139.8434632537343</v>
+        <v>37.50506170733349</v>
       </c>
       <c r="O6" t="n">
-        <v>281.1786357969507</v>
+        <v>74.46964529555932</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9983850025220644</v>
+        <v>0.9459177863565251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8223004070694545</v>
+        <v>0.7154121622428744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8123946330868406</v>
+        <v>0.7687818279186823</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9970810241558731</v>
+        <v>0.9744658316707685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00672247011722453</v>
+        <v>0.1736194376384768</v>
       </c>
       <c r="G7" t="n">
-        <v>1.188277996157947</v>
+        <v>1.9030401814884</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6710535194641878</v>
+        <v>0.8270539947349496</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0162120659316295</v>
+        <v>0.08893844501321059</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2188827111997996</v>
+        <v>0.8056919609936054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08199067091580926</v>
+        <v>0.4166766583797044</v>
       </c>
       <c r="L7" t="n">
-        <v>1.103359838587878</v>
+        <v>0.9263561346131406</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0832819420221316</v>
+        <v>0.4232388992253383</v>
       </c>
       <c r="N7" t="n">
-        <v>140.004599230038</v>
+        <v>37.50177903012051</v>
       </c>
       <c r="O7" t="n">
-        <v>281.3397717732544</v>
+        <v>74.46636261834634</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9984928864380412</v>
+        <v>0.9458252882946233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8221837513872299</v>
+        <v>0.7151678656975957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8125293224320801</v>
+        <v>0.7687491189043061</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976407372823224</v>
+        <v>0.9746819030479439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006273400436811983</v>
+        <v>0.1739163829816522</v>
       </c>
       <c r="G8" t="n">
-        <v>1.189058073242132</v>
+        <v>1.90467379361156</v>
       </c>
       <c r="H8" t="n">
-        <v>0.670571743486003</v>
+        <v>0.8271709929827955</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01310340501994288</v>
+        <v>0.08818584355581985</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2175684954145842</v>
+        <v>0.8053201033135445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07920480059195896</v>
+        <v>0.4170328320188378</v>
       </c>
       <c r="L8" t="n">
-        <v>1.096455267965361</v>
+        <v>0.9262301798054445</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0804521970255293</v>
+        <v>0.4236006822432452</v>
       </c>
       <c r="N8" t="n">
-        <v>140.1428734738554</v>
+        <v>37.49836130569823</v>
       </c>
       <c r="O8" t="n">
-        <v>281.4780460170718</v>
+        <v>74.46294489392406</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9984835008009966</v>
+        <v>0.945728961345078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8221577680710366</v>
+        <v>0.714919402953482</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8125351646075296</v>
+        <v>0.7687155069917944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976723949890652</v>
+        <v>0.9748963771112416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006312468401577035</v>
+        <v>0.1742256201537793</v>
       </c>
       <c r="G9" t="n">
-        <v>1.18923182379716</v>
+        <v>1.906335265125514</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6705508463631686</v>
+        <v>0.8272912208449192</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01292757731311507</v>
+        <v>0.08743880572637448</v>
       </c>
       <c r="J9" t="n">
-        <v>0.220172476404145</v>
+        <v>0.8049663739183035</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07945104405592815</v>
+        <v>0.4174034261404418</v>
       </c>
       <c r="L9" t="n">
-        <v>1.097055948736219</v>
+        <v>0.9260990111932977</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08070231857790285</v>
+        <v>0.4239771128518062</v>
       </c>
       <c r="N9" t="n">
-        <v>140.1304569801679</v>
+        <v>37.49480830432902</v>
       </c>
       <c r="O9" t="n">
-        <v>281.4656295233843</v>
+        <v>74.45939189255485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_0</t>
+          <t>model_1_25_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.998507327931435</v>
+        <v>0.9456285789745752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220486405199676</v>
+        <v>0.714666776613458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8076810090082527</v>
+        <v>0.7686810103730092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.998984929797184</v>
+        <v>0.9751090253828512</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006213287335018319</v>
+        <v>0.1745478763918545</v>
       </c>
       <c r="G10" t="n">
-        <v>1.189961560233643</v>
+        <v>1.908024578624492</v>
       </c>
       <c r="H10" t="n">
-        <v>0.687913879481669</v>
+        <v>0.8274146132500851</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005637725672309445</v>
+        <v>0.08669812733936598</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2141720251980225</v>
+        <v>0.8046338223238552</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0788244082440098</v>
+        <v>0.4177892727103635</v>
       </c>
       <c r="L10" t="n">
-        <v>1.095531012388157</v>
+        <v>0.9259623203058045</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08006581387835277</v>
+        <v>0.4243690361194991</v>
       </c>
       <c r="N10" t="n">
-        <v>140.162130323165</v>
+        <v>37.49111242338655</v>
       </c>
       <c r="O10" t="n">
-        <v>281.4973028663814</v>
+        <v>74.45569601161237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_1</t>
+          <t>model_1_25_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9984906047377086</v>
+        <v>0.9455240353930906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8219378030513008</v>
+        <v>0.7144098059547477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8085183011450809</v>
+        <v>0.7686456456364219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985642688980489</v>
+        <v>0.9753197325070012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006282898075361027</v>
+        <v>0.1748834913122369</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190702730896978</v>
+        <v>1.909742942602529</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6849189340572219</v>
+        <v>0.8275411108622928</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007974086983883084</v>
+        <v>0.08596421019221305</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2089827037755844</v>
+        <v>0.8043648205797683</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07926473412155639</v>
+        <v>0.4181907355648101</v>
       </c>
       <c r="L11" t="n">
-        <v>1.096601296786652</v>
+        <v>0.9258199630884638</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08051307444830634</v>
+        <v>0.4247768216125876</v>
       </c>
       <c r="N11" t="n">
-        <v>140.1398478559629</v>
+        <v>37.48727058141584</v>
       </c>
       <c r="O11" t="n">
-        <v>281.4750203991793</v>
+        <v>74.45185416964165</v>
       </c>
     </row>
   </sheetData>
